--- a/app/src/main/resources/migration/migration-attribute-mapping.xlsx
+++ b/app/src/main/resources/migration/migration-attribute-mapping.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://howoocast-my.sharepoint.com/personal/ho_howoocast_com/Documents/호우캐스트_회사업무폴더/3-2_Project_외부건/[2022_0221] 22111_한양풍동실험연구소_HAS_구축/마이그레이션/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\hywtl_has\app\src\main\resources\migration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="276" documentId="13_ncr:1_{A4726FB6-5C77-4D20-B986-EF954DC2E6AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4A9200AD-0F2D-410A-9C75-3EB647B4DA52}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B3534DE-2177-4B4D-AAE1-426CAFBB2E9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-45" windowWidth="38640" windowHeight="21840" xr2:uid="{C3D8115D-8C6C-4248-8491-F5B2F0A900D1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{C3D8115D-8C6C-4248-8491-F5B2F0A900D1}"/>
   </bookViews>
   <sheets>
     <sheet name="마이그레이션" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1542" uniqueCount="777">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1543" uniqueCount="778">
   <si>
     <t>파일명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -431,10 +431,6 @@
   </si>
   <si>
     <t>113</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>선급금--&gt;계약금'으로 이름 변경</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2751,6 +2747,14 @@
       </rPr>
       <t>빌딩풍 시뮬레이션은 기획에서 제외된 사항입니다.</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vat 제외된 금액</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선급금--&gt;계약금'으로 이름 변경((vat 포함 금액))</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3313,7 +3317,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H70" sqref="H70"/>
+      <selection pane="bottomLeft" activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3385,13 +3389,13 @@
         <v>11</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>762</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>763</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="6" t="s">
         <v>764</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>765</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -3440,10 +3444,10 @@
         <v>25</v>
       </c>
       <c r="F8" s="2" t="s">
+        <v>698</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>699</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>700</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -3460,10 +3464,10 @@
         <v>6</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -3480,10 +3484,10 @@
         <v>30</v>
       </c>
       <c r="F10" s="2" t="s">
+        <v>701</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>702</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>703</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -3497,13 +3501,13 @@
         <v>11</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -3520,10 +3524,10 @@
         <v>35</v>
       </c>
       <c r="F12" s="2" t="s">
+        <v>705</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>706</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>707</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -3556,13 +3560,13 @@
         <v>42</v>
       </c>
       <c r="F15" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="G15" s="2" t="s">
         <v>708</v>
       </c>
-      <c r="G15" s="2" t="s">
-        <v>709</v>
-      </c>
       <c r="H15" s="6" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -3597,7 +3601,7 @@
       <c r="F18" s="20"/>
       <c r="G18" s="20"/>
       <c r="H18" s="19" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.3">
@@ -3614,7 +3618,7 @@
       <c r="F19" s="20"/>
       <c r="G19" s="20"/>
       <c r="H19" s="19" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.3">
@@ -3631,7 +3635,7 @@
       <c r="F20" s="20"/>
       <c r="G20" s="20"/>
       <c r="H20" s="19" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.3">
@@ -3648,7 +3652,7 @@
       <c r="F21" s="20"/>
       <c r="G21" s="20"/>
       <c r="H21" s="19" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.3">
@@ -3665,7 +3669,7 @@
       <c r="F22" s="20"/>
       <c r="G22" s="20"/>
       <c r="H22" s="19" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.3">
@@ -3682,7 +3686,7 @@
       <c r="F23" s="20"/>
       <c r="G23" s="20"/>
       <c r="H23" s="19" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.3">
@@ -3699,7 +3703,7 @@
       <c r="F24" s="20"/>
       <c r="G24" s="20"/>
       <c r="H24" s="19" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.3">
@@ -3716,7 +3720,7 @@
       <c r="F25" s="20"/>
       <c r="G25" s="20"/>
       <c r="H25" s="19" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.3">
@@ -3733,7 +3737,7 @@
       <c r="F26" s="20"/>
       <c r="G26" s="20"/>
       <c r="H26" s="19" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.3">
@@ -3750,7 +3754,7 @@
       <c r="F27" s="20"/>
       <c r="G27" s="20"/>
       <c r="H27" s="19" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.3">
@@ -3767,7 +3771,7 @@
       <c r="F28" s="20"/>
       <c r="G28" s="20"/>
       <c r="H28" s="19" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.3">
@@ -3784,7 +3788,7 @@
       <c r="F29" s="20"/>
       <c r="G29" s="20"/>
       <c r="H29" s="19" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.3">
@@ -3801,7 +3805,7 @@
       <c r="F30" s="20"/>
       <c r="G30" s="20"/>
       <c r="H30" s="19" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.3">
@@ -3815,10 +3819,10 @@
         <v>11</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="H31" s="6" t="s">
         <v>43</v>
@@ -3838,10 +3842,10 @@
         <v>77</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.3">
@@ -3858,10 +3862,10 @@
         <v>80</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.3">
@@ -3878,10 +3882,10 @@
         <v>83</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.3">
@@ -3898,10 +3902,10 @@
         <v>86</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.3">
@@ -3915,10 +3919,10 @@
         <v>11</v>
       </c>
       <c r="F36" s="2" t="s">
+        <v>721</v>
+      </c>
+      <c r="G36" s="2" t="s">
         <v>722</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>723</v>
       </c>
       <c r="H36" s="6" t="s">
         <v>89</v>
@@ -3970,10 +3974,10 @@
         <v>100</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.3">
@@ -4006,63 +4010,63 @@
         <v>107</v>
       </c>
       <c r="F44" s="23" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="G44" s="23" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="H44" s="24" t="s">
-        <v>108</v>
+        <v>777</v>
       </c>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B45" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="C45" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="C45" s="22" t="s">
+      <c r="D45" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E45" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="D45" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="E45" s="23" t="s">
-        <v>111</v>
-      </c>
       <c r="F45" s="23" t="s">
+        <v>725</v>
+      </c>
+      <c r="G45" s="23" t="s">
         <v>726</v>
-      </c>
-      <c r="G45" s="23" t="s">
-        <v>727</v>
       </c>
       <c r="H45" s="22"/>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B46" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="C46" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="C46" s="22" t="s">
+      <c r="D46" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E46" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="D46" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="E46" s="23" t="s">
-        <v>114</v>
-      </c>
       <c r="F46" s="23" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="G46" s="23" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H46" s="22"/>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B47" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="C47" s="22" t="s">
         <v>115</v>
-      </c>
-      <c r="C47" s="22" t="s">
-        <v>116</v>
       </c>
       <c r="D47" s="23" t="s">
         <v>11</v>
@@ -4073,53 +4077,53 @@
       <c r="F47" s="23"/>
       <c r="G47" s="23"/>
       <c r="H47" s="22" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B48" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="C48" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="C48" s="22" t="s">
-        <v>119</v>
-      </c>
       <c r="D48" s="23" t="s">
         <v>11</v>
       </c>
       <c r="E48" s="23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F48" s="23"/>
       <c r="G48" s="23"/>
       <c r="H48" s="22" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B49" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="C49" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="C49" s="22" t="s">
-        <v>121</v>
-      </c>
       <c r="D49" s="23" t="s">
         <v>11</v>
       </c>
       <c r="E49" s="23" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F49" s="23"/>
       <c r="G49" s="23"/>
       <c r="H49" s="22" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B50" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="C50" s="22" t="s">
         <v>122</v>
-      </c>
-      <c r="C50" s="22" t="s">
-        <v>123</v>
       </c>
       <c r="D50" s="23" t="s">
         <v>11</v>
@@ -4130,53 +4134,53 @@
       <c r="F50" s="23"/>
       <c r="G50" s="23"/>
       <c r="H50" s="22" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B51" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="C51" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="C51" s="22" t="s">
-        <v>125</v>
-      </c>
       <c r="D51" s="23" t="s">
         <v>11</v>
       </c>
       <c r="E51" s="23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F51" s="23"/>
       <c r="G51" s="23"/>
       <c r="H51" s="22" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B52" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="C52" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="C52" s="22" t="s">
-        <v>127</v>
-      </c>
       <c r="D52" s="23" t="s">
         <v>11</v>
       </c>
       <c r="E52" s="23" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F52" s="23"/>
       <c r="G52" s="23"/>
       <c r="H52" s="22" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B53" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="C53" s="22" t="s">
         <v>128</v>
-      </c>
-      <c r="C53" s="22" t="s">
-        <v>129</v>
       </c>
       <c r="D53" s="23" t="s">
         <v>11</v>
@@ -4187,53 +4191,53 @@
       <c r="F53" s="23"/>
       <c r="G53" s="23"/>
       <c r="H53" s="22" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B54" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="C54" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="C54" s="22" t="s">
-        <v>131</v>
-      </c>
       <c r="D54" s="23" t="s">
         <v>11</v>
       </c>
       <c r="E54" s="23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F54" s="23"/>
       <c r="G54" s="23"/>
       <c r="H54" s="22" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B55" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="C55" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="C55" s="22" t="s">
-        <v>133</v>
-      </c>
       <c r="D55" s="23" t="s">
         <v>11</v>
       </c>
       <c r="E55" s="23" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F55" s="23"/>
       <c r="G55" s="23"/>
       <c r="H55" s="22" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B56" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="C56" s="22" t="s">
         <v>134</v>
-      </c>
-      <c r="C56" s="22" t="s">
-        <v>135</v>
       </c>
       <c r="D56" s="23" t="s">
         <v>11</v>
@@ -4244,1461 +4248,1464 @@
       <c r="F56" s="23"/>
       <c r="G56" s="23"/>
       <c r="H56" s="22" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B57" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="C57" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="C57" s="22" t="s">
-        <v>137</v>
-      </c>
       <c r="D57" s="23" t="s">
         <v>11</v>
       </c>
       <c r="E57" s="23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F57" s="23"/>
       <c r="G57" s="23"/>
       <c r="H57" s="22" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B58" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="C58" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="C58" s="22" t="s">
-        <v>139</v>
-      </c>
       <c r="D58" s="23" t="s">
         <v>11</v>
       </c>
       <c r="E58" s="23" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F58" s="23"/>
       <c r="G58" s="23"/>
       <c r="H58" s="22" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B59" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C59" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="C59" s="6" t="s">
+      <c r="D59" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E59" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="D59" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>142</v>
-      </c>
       <c r="F59" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="G59" s="2" t="s">
         <v>708</v>
       </c>
-      <c r="G59" s="2" t="s">
-        <v>709</v>
+      <c r="H59" s="6" t="s">
+        <v>776</v>
       </c>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B60" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="C60" s="6" t="s">
         <v>143</v>
-      </c>
-      <c r="C60" s="6" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B61" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="C61" s="6" t="s">
         <v>145</v>
-      </c>
-      <c r="C61" s="6" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B62" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="C62" s="6" t="s">
         <v>147</v>
-      </c>
-      <c r="C62" s="6" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B63" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C63" s="6" t="s">
         <v>149</v>
-      </c>
-      <c r="C63" s="6" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B64" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="C64" s="10" t="s">
         <v>151</v>
-      </c>
-      <c r="C64" s="10" t="s">
-        <v>152</v>
       </c>
       <c r="D64" s="11" t="s">
         <v>11</v>
       </c>
       <c r="E64" s="11"/>
       <c r="F64" s="11" t="s">
+        <v>728</v>
+      </c>
+      <c r="G64" s="11" t="s">
+        <v>730</v>
+      </c>
+      <c r="H64" s="10" t="s">
         <v>729</v>
-      </c>
-      <c r="G64" s="11" t="s">
-        <v>731</v>
-      </c>
-      <c r="H64" s="10" t="s">
-        <v>730</v>
       </c>
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B65" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="C65" s="10" t="s">
         <v>154</v>
-      </c>
-      <c r="C65" s="10" t="s">
-        <v>155</v>
       </c>
       <c r="D65" s="11" t="s">
         <v>11</v>
       </c>
       <c r="E65" s="11"/>
       <c r="F65" s="11" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="G65" s="11" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="H65" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="66" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B66" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="C66" s="10" t="s">
         <v>156</v>
-      </c>
-      <c r="C66" s="10" t="s">
-        <v>157</v>
       </c>
       <c r="D66" s="11" t="s">
         <v>11</v>
       </c>
       <c r="E66" s="11"/>
       <c r="F66" s="11" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="G66" s="11" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="H66" s="26" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="67" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B67" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C67" s="10" t="s">
         <v>158</v>
-      </c>
-      <c r="C67" s="10" t="s">
-        <v>159</v>
       </c>
       <c r="D67" s="11" t="s">
         <v>11</v>
       </c>
       <c r="E67" s="11"/>
       <c r="F67" s="11" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="G67" s="11" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="H67" s="26" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="68" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B68" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="C68" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="C68" s="6" t="s">
-        <v>161</v>
-      </c>
       <c r="D68" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H68" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="69" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B69" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="C69" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="C69" s="6" t="s">
-        <v>163</v>
-      </c>
       <c r="D69" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H69" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="70" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B70" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="C70" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="C70" s="6" t="s">
-        <v>165</v>
-      </c>
       <c r="D70" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H70" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="71" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B71" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="C71" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="C71" s="6" t="s">
-        <v>167</v>
-      </c>
       <c r="D71" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H71" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="72" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B72" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="C72" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="C72" s="6" t="s">
-        <v>169</v>
-      </c>
       <c r="D72" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H72" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="73" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B73" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="C73" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="C73" s="6" t="s">
-        <v>171</v>
-      </c>
       <c r="D73" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H73" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="74" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B74" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="C74" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="C74" s="6" t="s">
-        <v>173</v>
-      </c>
       <c r="D74" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H74" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="75" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B75" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="C75" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="C75" s="6" t="s">
-        <v>175</v>
-      </c>
       <c r="D75" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H75" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="76" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B76" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="C76" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="C76" s="6" t="s">
-        <v>177</v>
-      </c>
       <c r="D76" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H76" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="77" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B77" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="C77" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="C77" s="6" t="s">
-        <v>179</v>
-      </c>
       <c r="D77" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H77" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="78" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B78" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="C78" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="C78" s="6" t="s">
-        <v>181</v>
-      </c>
       <c r="D78" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H78" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="79" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B79" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="C79" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="C79" s="6" t="s">
-        <v>183</v>
-      </c>
       <c r="D79" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H79" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="80" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B80" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="C80" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="C80" s="6" t="s">
-        <v>185</v>
-      </c>
       <c r="D80" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H80" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="81" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B81" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="C81" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="C81" s="6" t="s">
-        <v>187</v>
-      </c>
       <c r="D81" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H81" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="82" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B82" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="C82" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="C82" s="6" t="s">
-        <v>189</v>
-      </c>
       <c r="D82" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H82" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="83" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B83" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C83" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="C83" s="6" t="s">
-        <v>191</v>
-      </c>
       <c r="D83" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H83" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="84" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B84" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="C84" s="6" t="s">
         <v>192</v>
-      </c>
-      <c r="C84" s="6" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="85" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B85" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="C85" s="6" t="s">
         <v>194</v>
-      </c>
-      <c r="C85" s="6" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="86" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B86" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="C86" s="6" t="s">
         <v>196</v>
-      </c>
-      <c r="C86" s="6" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="87" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B87" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="C87" s="6" t="s">
         <v>198</v>
-      </c>
-      <c r="C87" s="6" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="88" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B88" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="C88" s="6" t="s">
         <v>200</v>
-      </c>
-      <c r="C88" s="6" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="89" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B89" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="C89" s="6" t="s">
         <v>202</v>
-      </c>
-      <c r="C89" s="6" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="90" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B90" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="C90" s="6" t="s">
         <v>204</v>
-      </c>
-      <c r="C90" s="6" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="91" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B91" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="C91" s="6" t="s">
         <v>206</v>
-      </c>
-      <c r="C91" s="6" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="92" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B92" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="C92" s="6" t="s">
         <v>208</v>
-      </c>
-      <c r="C92" s="6" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="93" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B93" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="C93" s="6" t="s">
         <v>210</v>
-      </c>
-      <c r="C93" s="6" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="94" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B94" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="C94" s="6" t="s">
         <v>212</v>
-      </c>
-      <c r="C94" s="6" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="95" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B95" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="C95" s="6" t="s">
         <v>214</v>
-      </c>
-      <c r="C95" s="6" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="96" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B96" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="C96" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="C96" s="10" t="s">
+      <c r="D96" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E96" s="11" t="s">
         <v>217</v>
       </c>
-      <c r="D96" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E96" s="11" t="s">
-        <v>218</v>
-      </c>
       <c r="F96" s="11" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="G96" s="11" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="H96" s="10" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="97" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B97" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="C97" s="10" t="s">
         <v>220</v>
-      </c>
-      <c r="C97" s="10" t="s">
-        <v>221</v>
       </c>
       <c r="D97" s="11" t="s">
         <v>11</v>
       </c>
       <c r="E97" s="11"/>
       <c r="F97" s="11" t="s">
+        <v>733</v>
+      </c>
+      <c r="G97" s="11" t="s">
         <v>734</v>
       </c>
-      <c r="G97" s="11" t="s">
-        <v>735</v>
-      </c>
       <c r="H97" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="98" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B98" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="C98" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="C98" s="10" t="s">
+      <c r="D98" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E98" s="11" t="s">
         <v>223</v>
       </c>
-      <c r="D98" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E98" s="11" t="s">
-        <v>224</v>
-      </c>
       <c r="F98" s="11" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="G98" s="11" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="H98" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="99" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B99" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="C99" s="10" t="s">
         <v>225</v>
-      </c>
-      <c r="C99" s="10" t="s">
-        <v>226</v>
       </c>
       <c r="D99" s="11" t="s">
         <v>11</v>
       </c>
       <c r="E99" s="11"/>
       <c r="F99" s="11" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="G99" s="11" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="H99" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="100" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B100" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="C100" s="10" t="s">
         <v>227</v>
-      </c>
-      <c r="C100" s="10" t="s">
-        <v>228</v>
       </c>
       <c r="D100" s="11" t="s">
         <v>11</v>
       </c>
       <c r="E100" s="11"/>
       <c r="F100" s="11" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="G100" s="11" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="H100" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="101" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B101" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="C101" s="10" t="s">
         <v>229</v>
-      </c>
-      <c r="C101" s="10" t="s">
-        <v>230</v>
       </c>
       <c r="D101" s="11" t="s">
         <v>11</v>
       </c>
       <c r="E101" s="11"/>
       <c r="F101" s="11" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="G101" s="11" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="H101" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="102" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B102" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="C102" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="C102" s="6" t="s">
-        <v>232</v>
-      </c>
       <c r="D102" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E102" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="H102" s="6" t="s">
         <v>218</v>
-      </c>
-      <c r="H102" s="6" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="103" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B103" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="C103" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="C103" s="6" t="s">
-        <v>234</v>
-      </c>
       <c r="D103" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H103" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="104" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B104" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="C104" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="C104" s="6" t="s">
-        <v>236</v>
-      </c>
       <c r="D104" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H104" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="105" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B105" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="C105" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="C105" s="6" t="s">
-        <v>238</v>
-      </c>
       <c r="D105" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H105" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="106" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B106" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="C106" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="C106" s="6" t="s">
-        <v>240</v>
-      </c>
       <c r="D106" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H106" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="107" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B107" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="C107" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="C107" s="6" t="s">
-        <v>242</v>
-      </c>
       <c r="D107" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H107" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="108" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B108" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="C108" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="C108" s="6" t="s">
-        <v>244</v>
-      </c>
       <c r="D108" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E108" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="H108" s="6" t="s">
         <v>218</v>
-      </c>
-      <c r="H108" s="6" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="109" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B109" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="C109" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="C109" s="6" t="s">
-        <v>246</v>
-      </c>
       <c r="D109" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H109" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="110" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B110" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="C110" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="C110" s="6" t="s">
-        <v>248</v>
-      </c>
       <c r="D110" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H110" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="111" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B111" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="C111" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="C111" s="6" t="s">
-        <v>250</v>
-      </c>
       <c r="D111" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H111" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="112" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B112" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="C112" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="C112" s="6" t="s">
-        <v>252</v>
-      </c>
       <c r="D112" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H112" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="113" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B113" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="C113" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="C113" s="6" t="s">
-        <v>254</v>
-      </c>
       <c r="D113" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H113" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="114" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B114" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="C114" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="C114" s="6" t="s">
+      <c r="D114" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E114" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="D114" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E114" s="2" t="s">
-        <v>257</v>
-      </c>
       <c r="H114" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="115" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B115" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="C115" s="6" t="s">
         <v>258</v>
       </c>
-      <c r="C115" s="6" t="s">
-        <v>259</v>
-      </c>
       <c r="D115" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H115" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="116" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B116" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="C116" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="C116" s="6" t="s">
-        <v>261</v>
-      </c>
       <c r="D116" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H116" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="117" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B117" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="C117" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="C117" s="6" t="s">
-        <v>263</v>
-      </c>
       <c r="D117" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H117" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="118" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B118" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="C118" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="C118" s="6" t="s">
-        <v>265</v>
-      </c>
       <c r="D118" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H118" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="119" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B119" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="C119" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="C119" s="6" t="s">
-        <v>267</v>
-      </c>
       <c r="D119" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H119" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="120" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B120" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="C120" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="C120" s="6" t="s">
-        <v>269</v>
-      </c>
       <c r="D120" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H120" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="121" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B121" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="C121" s="6" t="s">
         <v>270</v>
       </c>
-      <c r="C121" s="6" t="s">
-        <v>271</v>
-      </c>
       <c r="D121" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H121" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="122" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B122" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="C122" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="C122" s="6" t="s">
-        <v>273</v>
-      </c>
       <c r="D122" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H122" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="123" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B123" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="C123" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="C123" s="6" t="s">
-        <v>275</v>
-      </c>
       <c r="D123" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H123" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="124" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B124" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="C124" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="C124" s="6" t="s">
-        <v>277</v>
-      </c>
       <c r="D124" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H124" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="125" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B125" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="C125" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="C125" s="6" t="s">
-        <v>279</v>
-      </c>
       <c r="D125" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H125" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="126" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B126" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="C126" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="C126" s="6" t="s">
-        <v>281</v>
-      </c>
       <c r="D126" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H126" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="127" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B127" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="C127" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="C127" s="6" t="s">
-        <v>283</v>
-      </c>
       <c r="D127" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H127" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="128" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B128" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="C128" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="C128" s="6" t="s">
-        <v>285</v>
-      </c>
       <c r="D128" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H128" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="129" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B129" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="C129" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="C129" s="6" t="s">
-        <v>287</v>
-      </c>
       <c r="D129" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H129" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="130" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B130" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="C130" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="C130" s="6" t="s">
-        <v>289</v>
-      </c>
       <c r="D130" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H130" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="131" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B131" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="C131" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="C131" s="6" t="s">
-        <v>291</v>
-      </c>
       <c r="D131" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H131" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="132" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B132" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="C132" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="C132" s="6" t="s">
+      <c r="D132" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E132" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="D132" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E132" s="2" t="s">
-        <v>294</v>
-      </c>
       <c r="H132" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="133" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B133" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="C133" s="6" t="s">
         <v>295</v>
       </c>
-      <c r="C133" s="6" t="s">
-        <v>296</v>
-      </c>
       <c r="D133" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H133" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="134" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B134" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="C134" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="C134" s="6" t="s">
-        <v>298</v>
-      </c>
       <c r="D134" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H134" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="135" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B135" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="C135" s="6" t="s">
         <v>299</v>
       </c>
-      <c r="C135" s="6" t="s">
-        <v>300</v>
-      </c>
       <c r="D135" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H135" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="136" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B136" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="C136" s="6" t="s">
         <v>301</v>
       </c>
-      <c r="C136" s="6" t="s">
-        <v>302</v>
-      </c>
       <c r="D136" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H136" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="137" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B137" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="C137" s="6" t="s">
         <v>303</v>
       </c>
-      <c r="C137" s="6" t="s">
-        <v>304</v>
-      </c>
       <c r="D137" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H137" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="138" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B138" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="C138" s="6" t="s">
         <v>305</v>
       </c>
-      <c r="C138" s="6" t="s">
-        <v>306</v>
-      </c>
       <c r="D138" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H138" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="139" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B139" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="C139" s="6" t="s">
         <v>307</v>
       </c>
-      <c r="C139" s="6" t="s">
-        <v>308</v>
-      </c>
       <c r="D139" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H139" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="140" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B140" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="C140" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="C140" s="6" t="s">
-        <v>310</v>
-      </c>
       <c r="D140" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H140" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="141" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B141" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="C141" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="C141" s="6" t="s">
-        <v>312</v>
-      </c>
       <c r="D141" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H141" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="142" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B142" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="C142" s="6" t="s">
         <v>313</v>
       </c>
-      <c r="C142" s="6" t="s">
-        <v>314</v>
-      </c>
       <c r="D142" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H142" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="143" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B143" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="C143" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="C143" s="6" t="s">
-        <v>316</v>
-      </c>
       <c r="D143" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H143" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="144" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B144" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="C144" s="6" t="s">
         <v>317</v>
       </c>
-      <c r="C144" s="6" t="s">
-        <v>318</v>
-      </c>
       <c r="D144" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H144" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="145" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B145" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="C145" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="C145" s="6" t="s">
-        <v>320</v>
-      </c>
       <c r="D145" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H145" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="146" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B146" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="C146" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="C146" s="6" t="s">
-        <v>322</v>
-      </c>
       <c r="D146" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H146" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="147" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B147" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="C147" s="6" t="s">
         <v>323</v>
       </c>
-      <c r="C147" s="6" t="s">
-        <v>324</v>
-      </c>
       <c r="D147" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H147" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="148" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B148" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="C148" s="6" t="s">
         <v>325</v>
       </c>
-      <c r="C148" s="6" t="s">
-        <v>326</v>
-      </c>
       <c r="D148" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H148" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="149" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B149" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="C149" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="C149" s="6" t="s">
-        <v>328</v>
-      </c>
       <c r="D149" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H149" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="150" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B150" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="C150" s="6" t="s">
         <v>329</v>
-      </c>
-      <c r="C150" s="6" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="151" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B151" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="C151" s="6" t="s">
         <v>331</v>
-      </c>
-      <c r="C151" s="6" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="152" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B152" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="C152" s="6" t="s">
         <v>333</v>
-      </c>
-      <c r="C152" s="6" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="153" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B153" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="C153" s="6" t="s">
         <v>335</v>
-      </c>
-      <c r="C153" s="6" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="154" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B154" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="C154" s="6" t="s">
         <v>337</v>
-      </c>
-      <c r="C154" s="6" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="155" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B155" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="C155" s="6" t="s">
         <v>339</v>
-      </c>
-      <c r="C155" s="6" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="156" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B156" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="C156" s="6" t="s">
         <v>341</v>
-      </c>
-      <c r="C156" s="6" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="157" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B157" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="C157" s="6" t="s">
         <v>343</v>
-      </c>
-      <c r="C157" s="6" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="158" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B158" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="C158" s="6" t="s">
         <v>345</v>
-      </c>
-      <c r="C158" s="6" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="159" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B159" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="C159" s="6" t="s">
         <v>347</v>
-      </c>
-      <c r="C159" s="6" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="160" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B160" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="C160" s="6" t="s">
         <v>349</v>
-      </c>
-      <c r="C160" s="6" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B161" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="C161" s="6" t="s">
         <v>351</v>
-      </c>
-      <c r="C161" s="6" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B162" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="C162" s="6" t="s">
         <v>353</v>
-      </c>
-      <c r="C162" s="6" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B163" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="C163" s="6" t="s">
         <v>355</v>
-      </c>
-      <c r="C163" s="6" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B164" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="C164" s="6" t="s">
         <v>357</v>
-      </c>
-      <c r="C164" s="6" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
+        <v>358</v>
+      </c>
+      <c r="B165" s="6" t="s">
         <v>359</v>
-      </c>
-      <c r="B165" s="6" t="s">
-        <v>360</v>
       </c>
       <c r="C165" s="6" t="s">
         <v>10</v>
@@ -5706,7 +5713,7 @@
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B166" s="10" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C166" s="10" t="s">
         <v>14</v>
@@ -5715,21 +5722,21 @@
         <v>11</v>
       </c>
       <c r="E166" s="11" t="s">
+        <v>361</v>
+      </c>
+      <c r="F166" s="2" t="s">
+        <v>697</v>
+      </c>
+      <c r="G166" s="2" t="s">
+        <v>738</v>
+      </c>
+      <c r="H166" s="12" t="s">
         <v>362</v>
-      </c>
-      <c r="F166" s="2" t="s">
-        <v>698</v>
-      </c>
-      <c r="G166" s="2" t="s">
-        <v>739</v>
-      </c>
-      <c r="H166" s="12" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B167" s="6" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C167" s="6" t="s">
         <v>16</v>
@@ -5737,7 +5744,7 @@
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B168" s="6" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C168" s="6" t="s">
         <v>18</v>
@@ -5745,7 +5752,7 @@
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B169" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C169" s="6" t="s">
         <v>20</v>
@@ -5754,19 +5761,19 @@
         <v>11</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F169" s="2" t="s">
+        <v>739</v>
+      </c>
+      <c r="G169" s="2" t="s">
         <v>740</v>
-      </c>
-      <c r="G169" s="2" t="s">
-        <v>741</v>
       </c>
       <c r="H169" s="12"/>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B170" s="6" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C170" s="6" t="s">
         <v>22</v>
@@ -5774,7 +5781,7 @@
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B171" s="6" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C171" s="6" t="s">
         <v>24</v>
@@ -5782,7 +5789,7 @@
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B172" s="6" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C172" s="6" t="s">
         <v>27</v>
@@ -5790,7 +5797,7 @@
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B173" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C173" s="6" t="s">
         <v>29</v>
@@ -5798,7 +5805,7 @@
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B174" s="6" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C174" s="6" t="s">
         <v>32</v>
@@ -5806,7 +5813,7 @@
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B175" s="6" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C175" s="6" t="s">
         <v>34</v>
@@ -5814,7 +5821,7 @@
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B176" s="6" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C176" s="6" t="s">
         <v>37</v>
@@ -5822,7 +5829,7 @@
     </row>
     <row r="177" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B177" s="6" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C177" s="6" t="s">
         <v>39</v>
@@ -5831,18 +5838,18 @@
         <v>11</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="178" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B178" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C178" s="6" t="s">
         <v>41</v>
@@ -5851,18 +5858,18 @@
         <v>11</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="179" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B179" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C179" s="6" t="s">
         <v>45</v>
@@ -5870,7 +5877,7 @@
     </row>
     <row r="180" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B180" s="10" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C180" s="10" t="s">
         <v>47</v>
@@ -5879,21 +5886,21 @@
         <v>11</v>
       </c>
       <c r="E180" s="11" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F180" s="11" t="s">
+        <v>766</v>
+      </c>
+      <c r="G180" s="11" t="s">
         <v>767</v>
       </c>
-      <c r="G180" s="11" t="s">
+      <c r="H180" s="27" t="s">
         <v>768</v>
-      </c>
-      <c r="H180" s="27" t="s">
-        <v>769</v>
       </c>
     </row>
     <row r="181" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B181" s="10" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C181" s="10" t="s">
         <v>49</v>
@@ -5902,21 +5909,21 @@
         <v>11</v>
       </c>
       <c r="E181" s="11" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F181" s="11" t="s">
+        <v>769</v>
+      </c>
+      <c r="G181" s="11" t="s">
+        <v>708</v>
+      </c>
+      <c r="H181" s="10" t="s">
         <v>770</v>
-      </c>
-      <c r="G181" s="11" t="s">
-        <v>709</v>
-      </c>
-      <c r="H181" s="10" t="s">
-        <v>771</v>
       </c>
     </row>
     <row r="182" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B182" s="6" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C182" s="6" t="s">
         <v>51</v>
@@ -5924,7 +5931,7 @@
     </row>
     <row r="183" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B183" s="6" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C183" s="6" t="s">
         <v>53</v>
@@ -5933,12 +5940,12 @@
         <v>11</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="184" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B184" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C184" s="6" t="s">
         <v>55</v>
@@ -5947,12 +5954,12 @@
         <v>11</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="185" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B185" s="6" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C185" s="6" t="s">
         <v>57</v>
@@ -5960,7 +5967,7 @@
     </row>
     <row r="186" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B186" s="6" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C186" s="6" t="s">
         <v>59</v>
@@ -5969,12 +5976,12 @@
         <v>11</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="187" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B187" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C187" s="6" t="s">
         <v>61</v>
@@ -5983,12 +5990,12 @@
         <v>11</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="188" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B188" s="6" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C188" s="6" t="s">
         <v>63</v>
@@ -5996,7 +6003,7 @@
     </row>
     <row r="189" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B189" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C189" s="6" t="s">
         <v>11</v>
@@ -6005,12 +6012,12 @@
         <v>11</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="190" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B190" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C190" s="6" t="s">
         <v>66</v>
@@ -6019,12 +6026,12 @@
         <v>11</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="191" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B191" s="6" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C191" s="6" t="s">
         <v>68</v>
@@ -6032,7 +6039,7 @@
     </row>
     <row r="192" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B192" s="6" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C192" s="6" t="s">
         <v>70</v>
@@ -6041,12 +6048,12 @@
         <v>11</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B193" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C193" s="6" t="s">
         <v>72</v>
@@ -6055,12 +6062,12 @@
         <v>11</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B194" s="6" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C194" s="6" t="s">
         <v>74</v>
@@ -6068,7 +6075,7 @@
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B195" s="6" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C195" s="6" t="s">
         <v>76</v>
@@ -6077,12 +6084,12 @@
         <v>11</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B196" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C196" s="6" t="s">
         <v>79</v>
@@ -6091,12 +6098,12 @@
         <v>11</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B197" s="6" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C197" s="6" t="s">
         <v>82</v>
@@ -6104,10 +6111,10 @@
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
+        <v>388</v>
+      </c>
+      <c r="B198" s="6" t="s">
         <v>389</v>
-      </c>
-      <c r="B198" s="6" t="s">
-        <v>390</v>
       </c>
       <c r="C198" s="6" t="s">
         <v>10</v>
@@ -6115,7 +6122,7 @@
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B199" s="10" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C199" s="10" t="s">
         <v>14</v>
@@ -6124,21 +6131,21 @@
         <v>11</v>
       </c>
       <c r="E199" s="11" t="s">
+        <v>391</v>
+      </c>
+      <c r="F199" s="11" t="s">
+        <v>704</v>
+      </c>
+      <c r="G199" s="11" t="s">
+        <v>700</v>
+      </c>
+      <c r="H199" s="14" t="s">
         <v>392</v>
-      </c>
-      <c r="F199" s="11" t="s">
-        <v>705</v>
-      </c>
-      <c r="G199" s="11" t="s">
-        <v>701</v>
-      </c>
-      <c r="H199" s="14" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B200" s="6" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C200" s="6" t="s">
         <v>16</v>
@@ -6146,7 +6153,7 @@
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B201" s="6" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C201" s="6" t="s">
         <v>18</v>
@@ -6155,18 +6162,18 @@
         <v>11</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F201" s="2" t="s">
+        <v>733</v>
+      </c>
+      <c r="G201" s="2" t="s">
         <v>734</v>
-      </c>
-      <c r="G201" s="2" t="s">
-        <v>735</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B202" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C202" s="6" t="s">
         <v>20</v>
@@ -6175,18 +6182,18 @@
         <v>11</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F202" s="2" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B203" s="6" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C203" s="6" t="s">
         <v>22</v>
@@ -6195,18 +6202,18 @@
         <v>11</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F203" s="2" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B204" s="6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C204" s="6" t="s">
         <v>24</v>
@@ -6214,7 +6221,7 @@
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B205" s="6" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C205" s="6" t="s">
         <v>27</v>
@@ -6223,21 +6230,21 @@
         <v>11</v>
       </c>
       <c r="E205" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="F205" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="G205" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="H205" s="6" t="s">
         <v>403</v>
-      </c>
-      <c r="F205" s="2" t="s">
-        <v>705</v>
-      </c>
-      <c r="G205" s="2" t="s">
-        <v>744</v>
-      </c>
-      <c r="H205" s="6" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B206" s="6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C206" s="6" t="s">
         <v>29</v>
@@ -6246,21 +6253,21 @@
         <v>11</v>
       </c>
       <c r="E206" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="F206" s="2" t="s">
+        <v>733</v>
+      </c>
+      <c r="G206" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="H206" s="6" t="s">
         <v>403</v>
-      </c>
-      <c r="F206" s="2" t="s">
-        <v>734</v>
-      </c>
-      <c r="G206" s="2" t="s">
-        <v>744</v>
-      </c>
-      <c r="H206" s="6" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B207" s="6" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C207" s="6" t="s">
         <v>32</v>
@@ -6269,18 +6276,18 @@
         <v>11</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F207" s="2" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="G207" s="2" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B208" s="6" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C208" s="6" t="s">
         <v>34</v>
@@ -6289,18 +6296,18 @@
         <v>11</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F208" s="2" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="G208" s="2" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B209" s="6" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C209" s="6" t="s">
         <v>37</v>
@@ -6308,7 +6315,7 @@
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B210" s="6" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C210" s="6" t="s">
         <v>39</v>
@@ -6316,7 +6323,7 @@
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B211" s="6" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C211" s="6" t="s">
         <v>41</v>
@@ -6324,7 +6331,7 @@
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B212" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C212" s="6" t="s">
         <v>45</v>
@@ -6333,18 +6340,18 @@
         <v>11</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F212" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="G212" s="2" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B213" s="6" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C213" s="6" t="s">
         <v>47</v>
@@ -6353,19 +6360,19 @@
         <v>11</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F213" s="2" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="G213" s="2" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="H213" s="12"/>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B214" s="6" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C214" s="6" t="s">
         <v>49</v>
@@ -6374,22 +6381,22 @@
         <v>11</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F214" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="G214" s="2" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="H214" s="12"/>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A215" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="B215" s="8" t="s">
         <v>419</v>
-      </c>
-      <c r="B215" s="8" t="s">
-        <v>420</v>
       </c>
       <c r="C215" s="8" t="s">
         <v>10</v>
@@ -6398,16 +6405,16 @@
         <v>11</v>
       </c>
       <c r="E215" s="9" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F215" s="9" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="G215" s="9" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="H215" s="13" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.3">
@@ -6420,7 +6427,7 @@
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B217" s="6" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C217" s="6" t="s">
         <v>16</v>
@@ -6429,21 +6436,21 @@
         <v>11</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F217" s="2" t="s">
+        <v>772</v>
+      </c>
+      <c r="G217" s="2" t="s">
         <v>773</v>
       </c>
-      <c r="G217" s="2" t="s">
+      <c r="H217" s="6" t="s">
         <v>774</v>
-      </c>
-      <c r="H217" s="6" t="s">
-        <v>775</v>
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B218" s="6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C218" s="6" t="s">
         <v>18</v>
@@ -6452,24 +6459,24 @@
         <v>11</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F218" s="2" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="G218" s="2" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B219" s="6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C219" s="6" t="s">
         <v>20</v>
       </c>
       <c r="H219" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.3">
@@ -6480,7 +6487,7 @@
         <v>22</v>
       </c>
       <c r="H220" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.3">
@@ -6491,34 +6498,34 @@
         <v>24</v>
       </c>
       <c r="H221" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B222" s="6" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C222" s="6" t="s">
         <v>27</v>
       </c>
       <c r="H222" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B223" s="6" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C223" s="6" t="s">
         <v>29</v>
       </c>
       <c r="H223" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A224" s="7" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B224" s="8" t="s">
         <v>9</v>
@@ -6530,16 +6537,16 @@
         <v>11</v>
       </c>
       <c r="E224" s="9" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F224" s="9" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="G224" s="9" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="H224" s="13" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="225" spans="2:8" x14ac:dyDescent="0.3">
@@ -6552,7 +6559,7 @@
     </row>
     <row r="226" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B226" s="6" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C226" s="6" t="s">
         <v>16</v>
@@ -6561,21 +6568,21 @@
         <v>11</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F226" s="2" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="G226" s="2" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="H226" s="25" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="227" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B227" s="6" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C227" s="6" t="s">
         <v>18</v>
@@ -6584,18 +6591,18 @@
         <v>11</v>
       </c>
       <c r="E227" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F227" s="2" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="G227" s="2" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="228" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B228" s="6" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C228" s="6" t="s">
         <v>20</v>
@@ -6604,18 +6611,18 @@
         <v>11</v>
       </c>
       <c r="E228" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F228" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="G228" s="2" t="s">
         <v>748</v>
-      </c>
-      <c r="G228" s="2" t="s">
-        <v>749</v>
       </c>
     </row>
     <row r="229" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B229" s="6" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C229" s="6" t="s">
         <v>22</v>
@@ -6624,18 +6631,18 @@
         <v>11</v>
       </c>
       <c r="E229" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F229" s="2" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="G229" s="2" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="230" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B230" s="6" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C230" s="6" t="s">
         <v>24</v>
@@ -6644,18 +6651,18 @@
         <v>11</v>
       </c>
       <c r="E230" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F230" s="2" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="G230" s="2" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="231" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B231" s="6" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C231" s="6" t="s">
         <v>27</v>
@@ -6664,18 +6671,18 @@
         <v>11</v>
       </c>
       <c r="E231" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F231" s="2" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="G231" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="232" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B232" s="6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C232" s="6" t="s">
         <v>29</v>
@@ -6684,18 +6691,18 @@
         <v>11</v>
       </c>
       <c r="E232" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F232" s="2" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="G232" s="2" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="233" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B233" s="6" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C233" s="6" t="s">
         <v>32</v>
@@ -6703,7 +6710,7 @@
     </row>
     <row r="234" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B234" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C234" s="6" t="s">
         <v>34</v>
@@ -6712,18 +6719,18 @@
         <v>11</v>
       </c>
       <c r="E234" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F234" s="2" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="G234" s="2" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="235" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B235" s="6" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C235" s="6" t="s">
         <v>37</v>
@@ -6732,18 +6739,18 @@
         <v>11</v>
       </c>
       <c r="E235" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F235" s="2" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="G235" s="2" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="236" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B236" s="6" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C236" s="6" t="s">
         <v>39</v>
@@ -6752,18 +6759,18 @@
         <v>11</v>
       </c>
       <c r="E236" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F236" s="2" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="G236" s="2" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="237" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B237" s="6" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C237" s="6" t="s">
         <v>41</v>
@@ -6772,18 +6779,18 @@
         <v>11</v>
       </c>
       <c r="E237" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F237" s="2" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="G237" s="2" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="238" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B238" s="6" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C238" s="6" t="s">
         <v>45</v>
@@ -6792,18 +6799,18 @@
         <v>11</v>
       </c>
       <c r="E238" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F238" s="2" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="G238" s="2" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="239" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B239" s="6" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C239" s="6" t="s">
         <v>47</v>
@@ -6812,18 +6819,18 @@
         <v>11</v>
       </c>
       <c r="E239" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="F239" s="2" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="G239" s="2" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="240" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B240" s="6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C240" s="6" t="s">
         <v>49</v>
@@ -6831,7 +6838,7 @@
     </row>
     <row r="241" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B241" s="10" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C241" s="10" t="s">
         <v>51</v>
@@ -6840,21 +6847,21 @@
         <v>11</v>
       </c>
       <c r="E241" s="11" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="F241" s="11" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="G241" s="11" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="H241" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="242" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B242" s="10" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C242" s="10" t="s">
         <v>53</v>
@@ -6863,21 +6870,21 @@
         <v>11</v>
       </c>
       <c r="E242" s="11" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F242" s="11" t="s">
+        <v>760</v>
+      </c>
+      <c r="G242" s="11" t="s">
         <v>761</v>
       </c>
-      <c r="G242" s="11" t="s">
-        <v>762</v>
-      </c>
       <c r="H242" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="243" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B243" s="6" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C243" s="6" t="s">
         <v>55</v>
@@ -6886,15 +6893,15 @@
         <v>11</v>
       </c>
       <c r="E243" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H243" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="244" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B244" s="6" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C244" s="6" t="s">
         <v>57</v>
@@ -6903,15 +6910,15 @@
         <v>11</v>
       </c>
       <c r="E244" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H244" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="245" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B245" s="6" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C245" s="6" t="s">
         <v>59</v>
@@ -6920,15 +6927,15 @@
         <v>11</v>
       </c>
       <c r="E245" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H245" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="246" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B246" s="6" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C246" s="6" t="s">
         <v>61</v>
@@ -6937,15 +6944,15 @@
         <v>11</v>
       </c>
       <c r="E246" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H246" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="247" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B247" s="6" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C247" s="6" t="s">
         <v>63</v>
@@ -6954,32 +6961,32 @@
         <v>11</v>
       </c>
       <c r="E247" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H247" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="248" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B248" s="6" t="s">
+        <v>471</v>
+      </c>
+      <c r="C248" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D248" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E248" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="C248" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D248" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E248" s="2" t="s">
-        <v>473</v>
-      </c>
       <c r="H248" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="249" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B249" s="6" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C249" s="6" t="s">
         <v>66</v>
@@ -6988,15 +6995,15 @@
         <v>11</v>
       </c>
       <c r="E249" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H249" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="250" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B250" s="6" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C250" s="6" t="s">
         <v>68</v>
@@ -7005,15 +7012,15 @@
         <v>11</v>
       </c>
       <c r="E250" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H250" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="251" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B251" s="6" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C251" s="6" t="s">
         <v>70</v>
@@ -7022,15 +7029,15 @@
         <v>11</v>
       </c>
       <c r="E251" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H251" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="252" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B252" s="6" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C252" s="6" t="s">
         <v>72</v>
@@ -7039,15 +7046,15 @@
         <v>11</v>
       </c>
       <c r="E252" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H252" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="253" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B253" s="6" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C253" s="6" t="s">
         <v>74</v>
@@ -7056,15 +7063,15 @@
         <v>11</v>
       </c>
       <c r="E253" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H253" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="254" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B254" s="6" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C254" s="6" t="s">
         <v>76</v>
@@ -7073,15 +7080,15 @@
         <v>11</v>
       </c>
       <c r="E254" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H254" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="255" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B255" s="6" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C255" s="6" t="s">
         <v>79</v>
@@ -7090,15 +7097,15 @@
         <v>11</v>
       </c>
       <c r="E255" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H255" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="256" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B256" s="6" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C256" s="6" t="s">
         <v>82</v>
@@ -7107,15 +7114,15 @@
         <v>11</v>
       </c>
       <c r="E256" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H256" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="257" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B257" s="6" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C257" s="6" t="s">
         <v>85</v>
@@ -7124,15 +7131,15 @@
         <v>11</v>
       </c>
       <c r="E257" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H257" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="258" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B258" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C258" s="6" t="s">
         <v>88</v>
@@ -7141,15 +7148,15 @@
         <v>11</v>
       </c>
       <c r="E258" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H258" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="259" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B259" s="6" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C259" s="6" t="s">
         <v>91</v>
@@ -7158,15 +7165,15 @@
         <v>11</v>
       </c>
       <c r="E259" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H259" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="260" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B260" s="6" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C260" s="6" t="s">
         <v>93</v>
@@ -7175,15 +7182,15 @@
         <v>11</v>
       </c>
       <c r="E260" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H260" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="261" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B261" s="6" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C261" s="6" t="s">
         <v>95</v>
@@ -7192,15 +7199,15 @@
         <v>11</v>
       </c>
       <c r="E261" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H261" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="262" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B262" s="6" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C262" s="6" t="s">
         <v>97</v>
@@ -7209,15 +7216,15 @@
         <v>11</v>
       </c>
       <c r="E262" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H262" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="263" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B263" s="6" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C263" s="6" t="s">
         <v>99</v>
@@ -7226,15 +7233,15 @@
         <v>11</v>
       </c>
       <c r="E263" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H263" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="264" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B264" s="6" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C264" s="6" t="s">
         <v>102</v>
@@ -7243,15 +7250,15 @@
         <v>11</v>
       </c>
       <c r="E264" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H264" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="265" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B265" s="6" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C265" s="6" t="s">
         <v>104</v>
@@ -7260,15 +7267,15 @@
         <v>11</v>
       </c>
       <c r="E265" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H265" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="266" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B266" s="6" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C266" s="6" t="s">
         <v>106</v>
@@ -7277,1268 +7284,1268 @@
         <v>11</v>
       </c>
       <c r="E266" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H266" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="267" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B267" s="6" t="s">
+        <v>509</v>
+      </c>
+      <c r="C267" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="D267" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E267" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="C267" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="D267" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E267" s="2" t="s">
-        <v>511</v>
-      </c>
       <c r="H267" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="268" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B268" s="6" t="s">
+        <v>511</v>
+      </c>
+      <c r="C268" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D268" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E268" s="2" t="s">
         <v>512</v>
       </c>
-      <c r="C268" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="D268" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E268" s="2" t="s">
-        <v>513</v>
-      </c>
       <c r="H268" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="269" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B269" s="6" t="s">
+        <v>513</v>
+      </c>
+      <c r="C269" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="D269" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E269" s="2" t="s">
         <v>514</v>
       </c>
-      <c r="C269" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="D269" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E269" s="2" t="s">
-        <v>515</v>
-      </c>
       <c r="H269" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="270" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B270" s="6" t="s">
+        <v>515</v>
+      </c>
+      <c r="C270" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D270" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E270" s="2" t="s">
         <v>516</v>
       </c>
-      <c r="C270" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="D270" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E270" s="2" t="s">
-        <v>517</v>
-      </c>
       <c r="H270" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="271" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B271" s="6" t="s">
+        <v>517</v>
+      </c>
+      <c r="C271" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D271" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E271" s="2" t="s">
         <v>518</v>
       </c>
-      <c r="C271" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="D271" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E271" s="2" t="s">
-        <v>519</v>
-      </c>
       <c r="H271" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="272" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B272" s="6" t="s">
+        <v>519</v>
+      </c>
+      <c r="C272" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D272" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E272" s="2" t="s">
         <v>520</v>
       </c>
-      <c r="C272" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="D272" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E272" s="2" t="s">
-        <v>521</v>
-      </c>
       <c r="H272" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="273" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B273" s="6" t="s">
+        <v>521</v>
+      </c>
+      <c r="C273" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="D273" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E273" s="2" t="s">
         <v>522</v>
       </c>
-      <c r="C273" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="D273" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E273" s="2" t="s">
-        <v>523</v>
-      </c>
       <c r="H273" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="274" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B274" s="6" t="s">
+        <v>523</v>
+      </c>
+      <c r="C274" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D274" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E274" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="C274" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="D274" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E274" s="2" t="s">
-        <v>525</v>
-      </c>
       <c r="H274" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="275" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B275" s="6" t="s">
+        <v>525</v>
+      </c>
+      <c r="C275" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D275" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E275" s="2" t="s">
         <v>526</v>
       </c>
-      <c r="C275" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="D275" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E275" s="2" t="s">
-        <v>527</v>
-      </c>
       <c r="H275" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="276" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B276" s="6" t="s">
+        <v>527</v>
+      </c>
+      <c r="C276" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D276" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E276" s="2" t="s">
         <v>528</v>
       </c>
-      <c r="C276" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D276" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E276" s="2" t="s">
-        <v>529</v>
-      </c>
       <c r="H276" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="277" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B277" s="6" t="s">
+        <v>529</v>
+      </c>
+      <c r="C277" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="D277" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E277" s="2" t="s">
         <v>530</v>
       </c>
-      <c r="C277" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="D277" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E277" s="2" t="s">
-        <v>531</v>
-      </c>
       <c r="H277" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="278" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B278" s="6" t="s">
+        <v>531</v>
+      </c>
+      <c r="C278" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="D278" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E278" s="2" t="s">
         <v>532</v>
       </c>
-      <c r="C278" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="D278" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E278" s="2" t="s">
-        <v>533</v>
-      </c>
       <c r="H278" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="279" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B279" s="6" t="s">
+        <v>533</v>
+      </c>
+      <c r="C279" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="D279" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E279" s="2" t="s">
         <v>534</v>
       </c>
-      <c r="C279" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="D279" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E279" s="2" t="s">
-        <v>535</v>
-      </c>
       <c r="H279" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="280" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B280" s="6" t="s">
+        <v>535</v>
+      </c>
+      <c r="C280" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="D280" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E280" s="2" t="s">
         <v>536</v>
       </c>
-      <c r="C280" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="D280" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E280" s="2" t="s">
-        <v>537</v>
-      </c>
       <c r="H280" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="281" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B281" s="6" t="s">
+        <v>537</v>
+      </c>
+      <c r="C281" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="D281" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E281" s="2" t="s">
         <v>538</v>
       </c>
-      <c r="C281" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="D281" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E281" s="2" t="s">
-        <v>539</v>
-      </c>
       <c r="H281" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="282" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B282" s="6" t="s">
+        <v>539</v>
+      </c>
+      <c r="C282" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="D282" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E282" s="2" t="s">
         <v>540</v>
       </c>
-      <c r="C282" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="D282" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E282" s="2" t="s">
-        <v>541</v>
-      </c>
       <c r="H282" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="283" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B283" s="6" t="s">
+        <v>541</v>
+      </c>
+      <c r="C283" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="D283" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E283" s="2" t="s">
         <v>542</v>
       </c>
-      <c r="C283" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="D283" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E283" s="2" t="s">
-        <v>543</v>
-      </c>
       <c r="H283" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="284" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B284" s="6" t="s">
+        <v>543</v>
+      </c>
+      <c r="C284" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="D284" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E284" s="2" t="s">
         <v>544</v>
       </c>
-      <c r="C284" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="D284" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E284" s="2" t="s">
-        <v>545</v>
-      </c>
       <c r="H284" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="285" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B285" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="C285" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="D285" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E285" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="C285" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="D285" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E285" s="2" t="s">
-        <v>547</v>
-      </c>
       <c r="H285" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="286" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B286" s="6" t="s">
+        <v>547</v>
+      </c>
+      <c r="C286" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="D286" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E286" s="2" t="s">
         <v>548</v>
       </c>
-      <c r="C286" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="D286" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E286" s="2" t="s">
-        <v>549</v>
-      </c>
       <c r="H286" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="287" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B287" s="6" t="s">
+        <v>549</v>
+      </c>
+      <c r="C287" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="D287" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E287" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="C287" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="D287" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E287" s="2" t="s">
-        <v>551</v>
-      </c>
       <c r="H287" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="288" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B288" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="C288" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="D288" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E288" s="2" t="s">
         <v>552</v>
       </c>
-      <c r="C288" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="D288" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E288" s="2" t="s">
-        <v>553</v>
-      </c>
       <c r="H288" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="289" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B289" s="6" t="s">
+        <v>553</v>
+      </c>
+      <c r="C289" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="D289" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E289" s="2" t="s">
         <v>554</v>
       </c>
-      <c r="C289" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="D289" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E289" s="2" t="s">
-        <v>555</v>
-      </c>
       <c r="H289" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="290" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B290" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="C290" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="D290" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E290" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="C290" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="D290" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E290" s="2" t="s">
-        <v>557</v>
-      </c>
       <c r="H290" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="291" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B291" s="6" t="s">
+        <v>557</v>
+      </c>
+      <c r="C291" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="D291" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E291" s="2" t="s">
         <v>558</v>
       </c>
-      <c r="C291" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="D291" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E291" s="2" t="s">
-        <v>559</v>
-      </c>
       <c r="H291" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="292" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B292" s="6" t="s">
+        <v>559</v>
+      </c>
+      <c r="C292" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="D292" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E292" s="2" t="s">
         <v>560</v>
       </c>
-      <c r="C292" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="D292" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E292" s="2" t="s">
-        <v>561</v>
-      </c>
       <c r="H292" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="293" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B293" s="6" t="s">
+        <v>561</v>
+      </c>
+      <c r="C293" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="D293" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E293" s="2" t="s">
         <v>562</v>
       </c>
-      <c r="C293" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="D293" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E293" s="2" t="s">
-        <v>563</v>
-      </c>
       <c r="H293" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="294" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B294" s="6" t="s">
+        <v>563</v>
+      </c>
+      <c r="C294" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="D294" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E294" s="2" t="s">
         <v>564</v>
       </c>
-      <c r="C294" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="D294" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E294" s="2" t="s">
-        <v>565</v>
-      </c>
       <c r="H294" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="295" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B295" s="6" t="s">
+        <v>565</v>
+      </c>
+      <c r="C295" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="D295" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E295" s="2" t="s">
         <v>566</v>
       </c>
-      <c r="C295" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="D295" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E295" s="2" t="s">
-        <v>567</v>
-      </c>
       <c r="H295" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="296" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B296" s="6" t="s">
+        <v>567</v>
+      </c>
+      <c r="C296" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="D296" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E296" s="2" t="s">
         <v>568</v>
       </c>
-      <c r="C296" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="D296" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E296" s="2" t="s">
-        <v>569</v>
-      </c>
       <c r="H296" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="297" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B297" s="6" t="s">
+        <v>569</v>
+      </c>
+      <c r="C297" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="D297" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E297" s="2" t="s">
         <v>570</v>
       </c>
-      <c r="C297" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="D297" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E297" s="2" t="s">
-        <v>571</v>
-      </c>
       <c r="H297" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="298" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B298" s="6" t="s">
+        <v>571</v>
+      </c>
+      <c r="C298" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="D298" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E298" s="2" t="s">
         <v>572</v>
       </c>
-      <c r="C298" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="D298" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E298" s="2" t="s">
-        <v>573</v>
-      </c>
       <c r="H298" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="299" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B299" s="6" t="s">
+        <v>573</v>
+      </c>
+      <c r="C299" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="D299" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E299" s="2" t="s">
         <v>574</v>
       </c>
-      <c r="C299" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="D299" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E299" s="2" t="s">
-        <v>575</v>
-      </c>
       <c r="H299" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="300" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B300" s="6" t="s">
+        <v>575</v>
+      </c>
+      <c r="C300" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="D300" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E300" s="2" t="s">
         <v>576</v>
       </c>
-      <c r="C300" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="D300" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E300" s="2" t="s">
-        <v>577</v>
-      </c>
       <c r="H300" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="301" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B301" s="6" t="s">
+        <v>577</v>
+      </c>
+      <c r="C301" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="D301" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E301" s="2" t="s">
         <v>578</v>
       </c>
-      <c r="C301" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="D301" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E301" s="2" t="s">
-        <v>579</v>
-      </c>
       <c r="H301" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="302" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B302" s="6" t="s">
+        <v>579</v>
+      </c>
+      <c r="C302" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="D302" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E302" s="2" t="s">
         <v>580</v>
       </c>
-      <c r="C302" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="D302" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E302" s="2" t="s">
-        <v>581</v>
-      </c>
       <c r="H302" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="303" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B303" s="6" t="s">
+        <v>581</v>
+      </c>
+      <c r="C303" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="D303" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E303" s="2" t="s">
         <v>582</v>
       </c>
-      <c r="C303" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="D303" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E303" s="2" t="s">
-        <v>583</v>
-      </c>
       <c r="H303" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="304" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B304" s="6" t="s">
+        <v>583</v>
+      </c>
+      <c r="C304" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="D304" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E304" s="2" t="s">
         <v>584</v>
       </c>
-      <c r="C304" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="D304" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E304" s="2" t="s">
-        <v>585</v>
-      </c>
       <c r="H304" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="305" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B305" s="6" t="s">
+        <v>585</v>
+      </c>
+      <c r="C305" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="D305" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E305" s="2" t="s">
         <v>586</v>
       </c>
-      <c r="C305" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="D305" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E305" s="2" t="s">
-        <v>587</v>
-      </c>
       <c r="H305" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="306" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B306" s="6" t="s">
+        <v>587</v>
+      </c>
+      <c r="C306" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="D306" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E306" s="2" t="s">
         <v>588</v>
       </c>
-      <c r="C306" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="D306" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E306" s="2" t="s">
-        <v>589</v>
-      </c>
       <c r="H306" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="307" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B307" s="6" t="s">
+        <v>589</v>
+      </c>
+      <c r="C307" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="D307" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E307" s="2" t="s">
         <v>590</v>
       </c>
-      <c r="C307" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="D307" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E307" s="2" t="s">
-        <v>591</v>
-      </c>
       <c r="H307" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="308" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B308" s="6" t="s">
+        <v>591</v>
+      </c>
+      <c r="C308" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="D308" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E308" s="2" t="s">
         <v>592</v>
       </c>
-      <c r="C308" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="D308" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E308" s="2" t="s">
-        <v>593</v>
-      </c>
       <c r="H308" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="309" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B309" s="6" t="s">
+        <v>593</v>
+      </c>
+      <c r="C309" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="D309" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E309" s="2" t="s">
         <v>594</v>
       </c>
-      <c r="C309" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="D309" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E309" s="2" t="s">
-        <v>595</v>
-      </c>
       <c r="H309" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="310" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B310" s="6" t="s">
+        <v>595</v>
+      </c>
+      <c r="C310" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="D310" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E310" s="2" t="s">
         <v>596</v>
       </c>
-      <c r="C310" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="D310" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E310" s="2" t="s">
-        <v>597</v>
-      </c>
       <c r="H310" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="311" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B311" s="6" t="s">
+        <v>597</v>
+      </c>
+      <c r="C311" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="D311" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E311" s="2" t="s">
         <v>598</v>
       </c>
-      <c r="C311" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="D311" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E311" s="2" t="s">
-        <v>599</v>
-      </c>
       <c r="H311" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="312" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B312" s="6" t="s">
+        <v>599</v>
+      </c>
+      <c r="C312" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="D312" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E312" s="2" t="s">
         <v>600</v>
       </c>
-      <c r="C312" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="D312" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E312" s="2" t="s">
-        <v>601</v>
-      </c>
       <c r="H312" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="313" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B313" s="6" t="s">
+        <v>601</v>
+      </c>
+      <c r="C313" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="D313" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E313" s="2" t="s">
         <v>602</v>
       </c>
-      <c r="C313" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="D313" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E313" s="2" t="s">
-        <v>603</v>
-      </c>
       <c r="H313" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="314" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B314" s="6" t="s">
+        <v>603</v>
+      </c>
+      <c r="C314" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="D314" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E314" s="2" t="s">
         <v>604</v>
       </c>
-      <c r="C314" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="D314" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E314" s="2" t="s">
-        <v>605</v>
-      </c>
       <c r="H314" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="315" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B315" s="6" t="s">
+        <v>605</v>
+      </c>
+      <c r="C315" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="D315" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E315" s="2" t="s">
         <v>606</v>
       </c>
-      <c r="C315" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="D315" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E315" s="2" t="s">
-        <v>607</v>
-      </c>
       <c r="H315" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="316" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B316" s="6" t="s">
+        <v>607</v>
+      </c>
+      <c r="C316" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="D316" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E316" s="2" t="s">
         <v>608</v>
       </c>
-      <c r="C316" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="D316" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E316" s="2" t="s">
-        <v>609</v>
-      </c>
       <c r="H316" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="317" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B317" s="6" t="s">
+        <v>609</v>
+      </c>
+      <c r="C317" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="D317" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E317" s="2" t="s">
         <v>610</v>
       </c>
-      <c r="C317" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="D317" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E317" s="2" t="s">
-        <v>611</v>
-      </c>
       <c r="H317" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="318" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B318" s="6" t="s">
+        <v>611</v>
+      </c>
+      <c r="C318" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="D318" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E318" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="C318" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="D318" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E318" s="2" t="s">
-        <v>613</v>
-      </c>
       <c r="H318" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="319" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B319" s="6" t="s">
+        <v>613</v>
+      </c>
+      <c r="C319" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="D319" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E319" s="2" t="s">
         <v>614</v>
       </c>
-      <c r="C319" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="D319" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E319" s="2" t="s">
-        <v>615</v>
-      </c>
       <c r="H319" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="320" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B320" s="6" t="s">
+        <v>615</v>
+      </c>
+      <c r="C320" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="D320" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E320" s="2" t="s">
         <v>616</v>
       </c>
-      <c r="C320" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="D320" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E320" s="2" t="s">
-        <v>617</v>
-      </c>
       <c r="H320" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="321" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B321" s="6" t="s">
+        <v>617</v>
+      </c>
+      <c r="C321" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="D321" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E321" s="2" t="s">
         <v>618</v>
       </c>
-      <c r="C321" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="D321" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E321" s="2" t="s">
-        <v>619</v>
-      </c>
       <c r="H321" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="322" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B322" s="6" t="s">
+        <v>619</v>
+      </c>
+      <c r="C322" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="D322" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E322" s="2" t="s">
         <v>620</v>
       </c>
-      <c r="C322" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="D322" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E322" s="2" t="s">
-        <v>621</v>
-      </c>
       <c r="H322" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="323" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B323" s="6" t="s">
+        <v>621</v>
+      </c>
+      <c r="C323" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="D323" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E323" s="2" t="s">
         <v>622</v>
       </c>
-      <c r="C323" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="D323" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E323" s="2" t="s">
-        <v>623</v>
-      </c>
       <c r="H323" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="324" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B324" s="6" t="s">
+        <v>623</v>
+      </c>
+      <c r="C324" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="D324" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E324" s="2" t="s">
         <v>624</v>
       </c>
-      <c r="C324" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="D324" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E324" s="2" t="s">
-        <v>625</v>
-      </c>
       <c r="H324" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="325" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B325" s="6" t="s">
+        <v>625</v>
+      </c>
+      <c r="C325" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="D325" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E325" s="2" t="s">
         <v>626</v>
       </c>
-      <c r="C325" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="D325" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E325" s="2" t="s">
-        <v>627</v>
-      </c>
       <c r="H325" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="326" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B326" s="6" t="s">
+        <v>627</v>
+      </c>
+      <c r="C326" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="D326" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E326" s="2" t="s">
         <v>628</v>
       </c>
-      <c r="C326" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="D326" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E326" s="2" t="s">
-        <v>629</v>
-      </c>
       <c r="H326" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="327" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B327" s="6" t="s">
+        <v>629</v>
+      </c>
+      <c r="C327" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="D327" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E327" s="2" t="s">
         <v>630</v>
       </c>
-      <c r="C327" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="D327" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E327" s="2" t="s">
-        <v>631</v>
-      </c>
       <c r="H327" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="328" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B328" s="6" t="s">
+        <v>631</v>
+      </c>
+      <c r="C328" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="D328" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E328" s="2" t="s">
         <v>632</v>
       </c>
-      <c r="C328" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="D328" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E328" s="2" t="s">
-        <v>633</v>
-      </c>
       <c r="H328" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="329" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B329" s="6" t="s">
+        <v>633</v>
+      </c>
+      <c r="C329" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="D329" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E329" s="2" t="s">
         <v>634</v>
       </c>
-      <c r="C329" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="D329" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E329" s="2" t="s">
-        <v>635</v>
-      </c>
       <c r="H329" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="330" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B330" s="6" t="s">
+        <v>635</v>
+      </c>
+      <c r="C330" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="D330" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E330" s="2" t="s">
         <v>636</v>
       </c>
-      <c r="C330" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="D330" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E330" s="2" t="s">
-        <v>637</v>
-      </c>
       <c r="H330" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="331" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B331" s="6" t="s">
+        <v>637</v>
+      </c>
+      <c r="C331" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="D331" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E331" s="2" t="s">
         <v>638</v>
       </c>
-      <c r="C331" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="D331" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E331" s="2" t="s">
-        <v>639</v>
-      </c>
       <c r="H331" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="332" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B332" s="6" t="s">
+        <v>639</v>
+      </c>
+      <c r="C332" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="D332" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E332" s="2" t="s">
         <v>640</v>
       </c>
-      <c r="C332" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="D332" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E332" s="2" t="s">
-        <v>641</v>
-      </c>
       <c r="H332" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="333" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B333" s="6" t="s">
+        <v>641</v>
+      </c>
+      <c r="C333" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="D333" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E333" s="2" t="s">
         <v>642</v>
       </c>
-      <c r="C333" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="D333" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E333" s="2" t="s">
-        <v>643</v>
-      </c>
       <c r="H333" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="334" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B334" s="6" t="s">
+        <v>643</v>
+      </c>
+      <c r="C334" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="D334" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E334" s="2" t="s">
         <v>644</v>
       </c>
-      <c r="C334" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="D334" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E334" s="2" t="s">
-        <v>645</v>
-      </c>
       <c r="H334" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="335" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B335" s="6" t="s">
+        <v>645</v>
+      </c>
+      <c r="C335" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="D335" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E335" s="2" t="s">
         <v>646</v>
       </c>
-      <c r="C335" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="D335" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E335" s="2" t="s">
-        <v>647</v>
-      </c>
       <c r="H335" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="336" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B336" s="6" t="s">
+        <v>647</v>
+      </c>
+      <c r="C336" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="D336" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E336" s="2" t="s">
         <v>648</v>
       </c>
-      <c r="C336" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="D336" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E336" s="2" t="s">
-        <v>649</v>
-      </c>
       <c r="H336" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="337" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B337" s="6" t="s">
+        <v>649</v>
+      </c>
+      <c r="C337" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="D337" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E337" s="2" t="s">
         <v>650</v>
       </c>
-      <c r="C337" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="D337" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E337" s="2" t="s">
-        <v>651</v>
-      </c>
       <c r="H337" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="338" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B338" s="6" t="s">
+        <v>651</v>
+      </c>
+      <c r="C338" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="D338" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E338" s="2" t="s">
         <v>652</v>
       </c>
-      <c r="C338" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="D338" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E338" s="2" t="s">
-        <v>653</v>
-      </c>
       <c r="H338" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="339" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B339" s="6" t="s">
+        <v>653</v>
+      </c>
+      <c r="C339" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="D339" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E339" s="2" t="s">
         <v>654</v>
       </c>
-      <c r="C339" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="D339" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E339" s="2" t="s">
-        <v>655</v>
-      </c>
       <c r="H339" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="340" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B340" s="6" t="s">
+        <v>655</v>
+      </c>
+      <c r="C340" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="D340" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E340" s="2" t="s">
         <v>656</v>
       </c>
-      <c r="C340" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="D340" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E340" s="2" t="s">
-        <v>657</v>
-      </c>
       <c r="H340" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -8562,14 +8569,14 @@
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B2" s="28" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C2" s="28"/>
       <c r="D2" s="28"/>
       <c r="E2" s="28"/>
       <c r="F2" s="28"/>
       <c r="H2" s="28" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="I2" s="28"/>
       <c r="J2" s="28"/>
@@ -8613,161 +8620,161 @@
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" s="15" t="s">
+        <v>659</v>
+      </c>
+      <c r="C4" s="15" t="s">
         <v>660</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="D4" s="15" t="s">
         <v>661</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="E4" s="15" t="s">
         <v>662</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="F4" s="15" t="s">
         <v>663</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>664</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="15" t="s">
+        <v>659</v>
+      </c>
+      <c r="I4" s="15" t="s">
         <v>660</v>
       </c>
-      <c r="I4" s="15" t="s">
+      <c r="J4" s="15" t="s">
         <v>661</v>
       </c>
-      <c r="J4" s="15" t="s">
+      <c r="K4" s="15" t="s">
         <v>662</v>
       </c>
-      <c r="K4" s="15" t="s">
+      <c r="L4" s="15" t="s">
         <v>663</v>
-      </c>
-      <c r="L4" s="15" t="s">
-        <v>664</v>
       </c>
       <c r="M4" s="1"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B5" s="15" t="s">
+        <v>664</v>
+      </c>
+      <c r="C5" s="15" t="s">
         <v>665</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="D5" s="15" t="s">
         <v>666</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="E5" s="15" t="s">
         <v>667</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="F5" s="15" t="s">
         <v>668</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>669</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="15" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="I5" s="16"/>
       <c r="J5" s="15" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="K5" s="15" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="L5" s="15" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="M5" s="1"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B6" s="15" t="s">
+        <v>670</v>
+      </c>
+      <c r="C6" s="15" t="s">
         <v>671</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="D6" s="15" t="s">
         <v>672</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="E6" s="15" t="s">
         <v>673</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="F6" s="15" t="s">
         <v>674</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>675</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="15" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="I6" s="16" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="J6" s="15" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="K6" s="15" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="L6" s="15" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="M6" s="1"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B7" s="15" t="s">
+        <v>676</v>
+      </c>
+      <c r="C7" s="15" t="s">
         <v>677</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="D7" s="15" t="s">
         <v>678</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="E7" s="15" t="s">
         <v>679</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="F7" s="15" t="s">
         <v>680</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>681</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="17" t="s">
+        <v>681</v>
+      </c>
+      <c r="I7" s="18" t="s">
+        <v>677</v>
+      </c>
+      <c r="J7" s="15" t="s">
+        <v>678</v>
+      </c>
+      <c r="K7" s="15" t="s">
         <v>682</v>
       </c>
-      <c r="I7" s="18" t="s">
-        <v>678</v>
-      </c>
-      <c r="J7" s="15" t="s">
-        <v>679</v>
-      </c>
-      <c r="K7" s="15" t="s">
-        <v>683</v>
-      </c>
       <c r="L7" s="15" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="M7" s="1"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B8" s="15" t="s">
+        <v>683</v>
+      </c>
+      <c r="C8" s="15" t="s">
         <v>684</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="D8" s="15" t="s">
         <v>685</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="E8" s="15" t="s">
         <v>686</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>687</v>
       </c>
       <c r="F8" s="15"/>
       <c r="G8" s="1"/>
       <c r="H8" s="17" t="s">
+        <v>687</v>
+      </c>
+      <c r="I8" s="17" t="s">
         <v>688</v>
       </c>
-      <c r="I8" s="17" t="s">
-        <v>689</v>
-      </c>
       <c r="J8" s="15" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="K8" s="15"/>
       <c r="L8" s="15"/>
@@ -8775,25 +8782,25 @@
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B9" s="15" t="s">
+        <v>689</v>
+      </c>
+      <c r="C9" s="15" t="s">
         <v>690</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>691</v>
       </c>
       <c r="D9" s="15"/>
       <c r="E9" s="15" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="F9" s="15"/>
       <c r="G9" s="1"/>
       <c r="H9" s="17" t="s">
+        <v>692</v>
+      </c>
+      <c r="I9" s="17" t="s">
+        <v>690</v>
+      </c>
+      <c r="J9" s="15" t="s">
         <v>693</v>
-      </c>
-      <c r="I9" s="17" t="s">
-        <v>691</v>
-      </c>
-      <c r="J9" s="15" t="s">
-        <v>694</v>
       </c>
       <c r="K9" s="15"/>
       <c r="L9" s="15"/>
@@ -8801,22 +8808,22 @@
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B10" s="15" t="s">
+        <v>694</v>
+      </c>
+      <c r="C10" s="15" t="s">
         <v>695</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>696</v>
       </c>
       <c r="D10" s="15"/>
       <c r="E10" s="15" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F10" s="15"/>
       <c r="G10" s="1"/>
       <c r="H10" s="17" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="I10" s="15" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="J10" s="15"/>
       <c r="K10" s="15"/>
